--- a/metrics/transfer_time/cleaned_data/Oracle_04.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/Oracle_04.nan.xlsx
@@ -4175,14 +4175,24 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="C144" t="n">
+        <v>469</v>
+      </c>
+      <c r="D144" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="E144" t="n">
+        <v>34.26</v>
+      </c>
       <c r="F144" t="n">
         <v>943549696</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>1140732</v>
+      </c>
       <c r="H144" t="n">
         <v>46103.91</v>
       </c>
